--- a/RQ1 sex disaggregated findings.xlsx
+++ b/RQ1 sex disaggregated findings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelbateman/Documents/GitHub/sex_differences_CSF_proteins_brain_structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{427F6A81-697C-AD42-A077-19E5E7FB34AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223C4306-B89B-834E-B381-82EB004E0581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="30820" windowHeight="17440" activeTab="1" xr2:uid="{24E46355-110F-5649-8CDB-724A1B24785F}"/>
+    <workbookView xWindow="0" yWindow="9940" windowWidth="30820" windowHeight="11060" activeTab="1" xr2:uid="{24E46355-110F-5649-8CDB-724A1B24785F}"/>
   </bookViews>
   <sheets>
     <sheet name="Females" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Protein</t>
   </si>
@@ -61,14 +61,21 @@
   </si>
   <si>
     <t>NEGR1</t>
+  </si>
+  <si>
+    <t>2.5% CI</t>
+  </si>
+  <si>
+    <t>97.5% CI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -114,16 +121,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,9 +450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B1E7BA-B1F9-F240-9D4B-7FDA9D1A066B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -448,9 +462,11 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,8 +482,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -483,8 +505,14 @@
       <c r="E2" s="4">
         <v>0.210738848205656</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="7">
+        <v>-4.7664889999999998E-5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2.1338570000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -500,8 +528,14 @@
       <c r="E3" s="4">
         <v>0.70308675381372399</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="7">
+        <v>-3.3066520000000002E-4</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2.239039E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -516,6 +550,12 @@
       </c>
       <c r="E4" s="4">
         <v>0.25433921587351399</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-1.1595940000000001E-4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.3301039999999998E-4</v>
       </c>
     </row>
   </sheetData>
@@ -525,9 +565,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2D746B-43A1-7B43-8D3D-5EB12386F90F}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -535,9 +577,10 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -553,8 +596,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -570,8 +619,14 @@
       <c r="E2" s="4">
         <v>2.666948572E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="6">
+        <v>-2.3681799999999999E-4</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-1.4761E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -587,8 +642,14 @@
       <c r="E3" s="4">
         <v>8.2113599999999996E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="6">
+        <v>2.7980159999999997E-4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>6.9476E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -603,6 +664,12 @@
       </c>
       <c r="E4" s="4">
         <v>2.8999999999999998E-10</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4.8213580000000002E-4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>8.7496489999999998E-4</v>
       </c>
     </row>
   </sheetData>
